--- a/(!for Ast rev2) Marking Template.xlsx
+++ b/(!for Ast rev2) Marking Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\youRJube-AB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB0F194-8B8E-4536-9FFD-D22261F58DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627523C8-5A7D-49C5-86FE-6EB96C24A375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="5205" windowWidth="28800" windowHeight="15435" tabRatio="1000" xr2:uid="{49698597-22CD-4D3A-8DFF-383AE8A91F1D}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" tabRatio="1000" xr2:uid="{49698597-22CD-4D3A-8DFF-383AE8A91F1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="15" r:id="rId1"/>
@@ -4812,10 +4812,10 @@
                   <c:v>2.125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.899999999999999</c:v>
+                  <c:v>13.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.6</c:v>
+                  <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>17.349999999999998</c:v>
@@ -4937,10 +4937,10 @@
                   <c:v>7.5000000000000178E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5500000000000007</c:v>
+                  <c:v>4.5500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.64999999999999991</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -6397,11 +6397,11 @@
       </c>
       <c r="C13" s="72">
         <f t="shared" si="0"/>
-        <v>5.5500000000000007</v>
+        <v>4.5500000000000007</v>
       </c>
       <c r="D13" s="53">
         <f>'11. Video Detail Page'!C52</f>
-        <v>12.899999999999999</v>
+        <v>13.899999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -6414,11 +6414,11 @@
       </c>
       <c r="C14" s="72">
         <f t="shared" si="0"/>
-        <v>0.64999999999999991</v>
+        <v>0</v>
       </c>
       <c r="D14" s="53">
         <f>'12. Upload Video Page'!C16</f>
-        <v>3.6</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D16" s="105">
         <f>SUM(D2:D15)</f>
-        <v>84.55</v>
+        <v>86.199999999999989</v>
       </c>
     </row>
   </sheetData>
@@ -7318,8 +7318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C8EF7B-AC12-4120-9E45-910C509F1BA9}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7514,7 +7514,7 @@
         <v>0.2</v>
       </c>
       <c r="C17" s="3">
-        <f>B17</f>
+        <f t="shared" ref="C17:C22" si="1">B17</f>
         <v>0.2</v>
       </c>
     </row>
@@ -7526,7 +7526,7 @@
         <v>0.75</v>
       </c>
       <c r="C18" s="2">
-        <f>B18</f>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
     </row>
@@ -7538,7 +7538,7 @@
         <v>0.45</v>
       </c>
       <c r="C19" s="3">
-        <f>B19</f>
+        <f t="shared" si="1"/>
         <v>0.45</v>
       </c>
     </row>
@@ -7550,7 +7550,7 @@
         <v>0.5</v>
       </c>
       <c r="C20" s="3">
-        <f>B20</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
@@ -7562,7 +7562,7 @@
         <v>0.2</v>
       </c>
       <c r="C21" s="3">
-        <f>B21</f>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
     </row>
@@ -7574,7 +7574,7 @@
         <v>0.7</v>
       </c>
       <c r="C22" s="3">
-        <f>B22</f>
+        <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
     </row>
@@ -7604,7 +7604,10 @@
       <c r="B25" s="3">
         <v>0.5</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3">
+        <f>B25</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -7613,7 +7616,10 @@
       <c r="B26" s="3">
         <v>0.5</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3">
+        <f>B26</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -7874,7 +7880,7 @@
       </c>
       <c r="C52" s="39">
         <f>SUM(C3:C10,C12:C22,C24:C34,C36:C40,C42:C48,C50:C51)</f>
-        <v>12.899999999999999</v>
+        <v>13.899999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7947,8 +7953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5750BA-2D6E-4D64-840D-9EAC51BC5FDB}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8025,7 +8031,10 @@
       <c r="B7" s="15">
         <v>0.5</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3">
+        <f>B7</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
@@ -8097,8 +8106,8 @@
         <v>0.75</v>
       </c>
       <c r="C14" s="3">
-        <f>B14*4/5</f>
-        <v>0.6</v>
+        <f>B14</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8120,7 +8129,7 @@
       </c>
       <c r="C16" s="39">
         <f>SUM(C3:C4,C6:C8,C10:C12,C14:C15)</f>
-        <v>3.6</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8637,8 +8646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C35747-259E-4BE6-9174-1B9564286953}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10256,7 +10265,7 @@
         <v>0.75</v>
       </c>
       <c r="C4" s="2">
-        <f>B4</f>
+        <f t="shared" ref="C4:C12" si="0">B4</f>
         <v>0.75</v>
       </c>
     </row>
@@ -10268,7 +10277,7 @@
         <v>0.5</v>
       </c>
       <c r="C5" s="26">
-        <f>B5</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
@@ -10280,7 +10289,7 @@
         <v>0.5</v>
       </c>
       <c r="C6" s="26">
-        <f>B6</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
@@ -10292,7 +10301,7 @@
         <v>0.2</v>
       </c>
       <c r="C7" s="26">
-        <f>B7</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
@@ -10304,7 +10313,7 @@
         <v>0.4</v>
       </c>
       <c r="C8" s="26">
-        <f>B8</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
@@ -10316,7 +10325,7 @@
         <v>0.5</v>
       </c>
       <c r="C9" s="26">
-        <f>B9</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
@@ -10328,7 +10337,7 @@
         <v>0.5</v>
       </c>
       <c r="C10" s="26">
-        <f>B10</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
@@ -10340,7 +10349,7 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="44">
-        <f>B11</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
@@ -10352,7 +10361,7 @@
         <v>0.5</v>
       </c>
       <c r="C12" s="26">
-        <f>B12</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
@@ -10371,7 +10380,7 @@
         <v>0.5</v>
       </c>
       <c r="C14" s="26">
-        <f t="shared" ref="C14:C19" si="0">B14</f>
+        <f t="shared" ref="C14:C19" si="1">B14</f>
         <v>0.5</v>
       </c>
     </row>
@@ -10383,7 +10392,7 @@
         <v>0.75</v>
       </c>
       <c r="C15" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
     </row>
@@ -10395,7 +10404,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10407,7 +10416,7 @@
         <v>0.75</v>
       </c>
       <c r="C17" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
     </row>
@@ -10419,7 +10428,7 @@
         <v>0.5</v>
       </c>
       <c r="C18" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
@@ -10431,7 +10440,7 @@
         <v>0.5</v>
       </c>
       <c r="C19" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
